--- a/Grad Clothing voting/ballots_table.xlsx
+++ b/Grad Clothing voting/ballots_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABEACE02ECD4E35F4CB25BDE589F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B8F63E25-46D8-4213-8794-7B357ECD0CB8}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABEACE02ECD4E35F4CB25BDE589F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A0E4D1E1-9641-41A2-841F-DC359DE45589}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Email Address</t>
   </si>
@@ -254,6 +254,54 @@
   </si>
   <si>
     <t>linje@utschools.ca</t>
+  </si>
+  <si>
+    <t>hanst@utschools.ca</t>
+  </si>
+  <si>
+    <t>thave@utschools.ca</t>
+  </si>
+  <si>
+    <t>onesh@utschools.ca</t>
+  </si>
+  <si>
+    <t>chakr@utschools.ca</t>
+  </si>
+  <si>
+    <t>zhora@utschools.ca</t>
+  </si>
+  <si>
+    <t>leejo@utschools.ca</t>
+  </si>
+  <si>
+    <t>tench@utschools.ca</t>
+  </si>
+  <si>
+    <t>leesun@utschools.ca</t>
+  </si>
+  <si>
+    <t>jinbe@utschools.ca</t>
+  </si>
+  <si>
+    <t>mohma@utschools.ca</t>
+  </si>
+  <si>
+    <t>liuann@utschools.ca</t>
+  </si>
+  <si>
+    <t>winar@utschools.ca</t>
+  </si>
+  <si>
+    <t>linda@utschools.ca</t>
+  </si>
+  <si>
+    <t>huaei@utschools.ca</t>
+  </si>
+  <si>
+    <t>pfesa@utschools.ca</t>
+  </si>
+  <si>
+    <t>wanma@utschools.ca</t>
   </si>
 </sst>
 </file>
@@ -583,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S160"/>
+  <dimension ref="A1:S176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
+      <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3405,71 +3453,147 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+    <row r="61" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="2">
+        <v>7</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
       <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="H61" s="2">
+        <v>4</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
+      <c r="M61" s="2">
+        <v>5</v>
+      </c>
+      <c r="N61" s="2">
+        <v>8</v>
+      </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
+      <c r="Q61" s="2">
+        <v>9</v>
+      </c>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+    <row r="62" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="2">
+        <v>9</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="I62" s="2">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2">
+        <v>6</v>
+      </c>
+      <c r="K62" s="2">
+        <v>5</v>
+      </c>
+      <c r="L62" s="2">
+        <v>4</v>
+      </c>
       <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
+      <c r="N62" s="2">
+        <v>7</v>
+      </c>
+      <c r="O62" s="2">
+        <v>3</v>
+      </c>
+      <c r="P62" s="2">
+        <v>2</v>
+      </c>
       <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
+      <c r="R62" s="2">
+        <v>8</v>
+      </c>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+    <row r="63" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2">
+        <v>6</v>
+      </c>
+      <c r="E63" s="2">
+        <v>16</v>
+      </c>
+      <c r="F63" s="2">
+        <v>4</v>
+      </c>
+      <c r="G63" s="2">
+        <v>17</v>
+      </c>
+      <c r="H63" s="2">
+        <v>5</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2">
+        <v>12</v>
+      </c>
+      <c r="K63" s="2">
+        <v>10</v>
+      </c>
+      <c r="L63" s="2">
+        <v>18</v>
+      </c>
       <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A64" s="1"/>
+      <c r="N63" s="2">
+        <v>11</v>
+      </c>
+      <c r="O63" s="2">
+        <v>8</v>
+      </c>
+      <c r="P63" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>14</v>
+      </c>
+      <c r="R63" s="2">
+        <v>15</v>
+      </c>
+      <c r="S63" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3486,33 +3610,63 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="R64" s="2">
+        <v>2</v>
+      </c>
+      <c r="S64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2">
+        <v>10</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3</v>
+      </c>
+      <c r="F65" s="2">
+        <v>11</v>
+      </c>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="H65" s="2">
+        <v>12</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
+      <c r="M65" s="2">
+        <v>9</v>
+      </c>
+      <c r="N65" s="2">
+        <v>1</v>
+      </c>
+      <c r="O65" s="2">
+        <v>5</v>
+      </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="S65" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3521,21 +3675,33 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
+      <c r="K66" s="2">
+        <v>3</v>
+      </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
+      <c r="N66" s="2">
+        <v>1</v>
+      </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
+      <c r="Q66" s="2">
+        <v>4</v>
+      </c>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+    <row r="67" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="2">
+        <v>3</v>
+      </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -3544,128 +3710,288 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
+      <c r="M67" s="2">
+        <v>2</v>
+      </c>
+      <c r="N67" s="2">
+        <v>4</v>
+      </c>
+      <c r="O67" s="2">
+        <v>5</v>
+      </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="S67" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="2">
+        <v>17</v>
+      </c>
+      <c r="C68" s="2">
+        <v>16</v>
+      </c>
+      <c r="D68" s="2">
+        <v>15</v>
+      </c>
+      <c r="E68" s="2">
+        <v>14</v>
+      </c>
+      <c r="F68" s="2">
+        <v>13</v>
+      </c>
+      <c r="G68" s="2">
+        <v>12</v>
+      </c>
+      <c r="H68" s="2">
+        <v>11</v>
+      </c>
+      <c r="I68" s="2">
+        <v>10</v>
+      </c>
+      <c r="J68" s="2">
+        <v>9</v>
+      </c>
+      <c r="K68" s="2">
+        <v>8</v>
+      </c>
+      <c r="L68" s="2">
+        <v>7</v>
+      </c>
+      <c r="M68" s="2">
+        <v>6</v>
+      </c>
+      <c r="N68" s="2">
+        <v>18</v>
+      </c>
+      <c r="O68" s="2">
+        <v>5</v>
+      </c>
+      <c r="P68" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>3</v>
+      </c>
+      <c r="R68" s="2">
+        <v>2</v>
+      </c>
+      <c r="S68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>13</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="G69" s="2">
+        <v>18</v>
+      </c>
+      <c r="H69" s="2">
+        <v>14</v>
+      </c>
+      <c r="I69" s="2">
+        <v>15</v>
+      </c>
+      <c r="J69" s="2">
+        <v>17</v>
+      </c>
       <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
+      <c r="L69" s="2">
+        <v>16</v>
+      </c>
+      <c r="M69" s="2">
+        <v>12</v>
+      </c>
+      <c r="N69" s="2">
+        <v>5</v>
+      </c>
+      <c r="O69" s="2">
+        <v>3</v>
+      </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A71" s="1"/>
+      <c r="S69" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="2">
+        <v>10</v>
+      </c>
+      <c r="C70" s="2">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2">
+        <v>8</v>
+      </c>
+      <c r="E70" s="2">
+        <v>11</v>
+      </c>
+      <c r="F70" s="2">
+        <v>7</v>
+      </c>
+      <c r="G70" s="2">
+        <v>12</v>
+      </c>
+      <c r="H70" s="2">
+        <v>4</v>
+      </c>
+      <c r="I70" s="2">
+        <v>3</v>
+      </c>
+      <c r="J70" s="2">
+        <v>15</v>
+      </c>
+      <c r="K70" s="2">
+        <v>16</v>
+      </c>
+      <c r="L70" s="2">
+        <v>2</v>
+      </c>
+      <c r="M70" s="2">
+        <v>9</v>
+      </c>
+      <c r="N70" s="2">
+        <v>5</v>
+      </c>
+      <c r="O70" s="2">
+        <v>1</v>
+      </c>
+      <c r="P70" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>17</v>
+      </c>
+      <c r="R70" s="2">
+        <v>18</v>
+      </c>
+      <c r="S70" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2">
+        <v>17</v>
+      </c>
+      <c r="F71" s="2">
+        <v>3</v>
+      </c>
+      <c r="G71" s="2">
+        <v>18</v>
+      </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="2">
+        <v>4</v>
+      </c>
       <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
+      <c r="K71" s="2">
+        <v>14</v>
+      </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
+      <c r="N71" s="2">
+        <v>2</v>
+      </c>
+      <c r="O71" s="2">
+        <v>16</v>
+      </c>
       <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
+      <c r="Q71" s="2">
+        <v>15</v>
+      </c>
       <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A72" s="1"/>
+      <c r="S71" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="D72" s="2">
+        <v>5</v>
+      </c>
+      <c r="E72" s="2">
+        <v>6</v>
+      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="J72" s="2">
+        <v>2</v>
+      </c>
       <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="L72" s="2">
+        <v>7</v>
+      </c>
       <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
+      <c r="N72" s="2">
+        <v>4</v>
+      </c>
+      <c r="O72" s="2">
+        <v>3</v>
+      </c>
+      <c r="P72" s="2">
+        <v>1</v>
+      </c>
       <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A73" s="1"/>
+      <c r="R72" s="2">
+        <v>8</v>
+      </c>
+      <c r="S72" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="C73" s="2">
+        <v>2</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3676,10 +4002,14 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A74" s="1"/>
+      <c r="S73" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3699,45 +4029,85 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A75" s="1"/>
+    <row r="75" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="G75" s="2">
+        <v>6</v>
+      </c>
+      <c r="H75" s="2">
+        <v>8</v>
+      </c>
+      <c r="I75" s="2">
+        <v>5</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
       <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
+      <c r="L75" s="2">
+        <v>3</v>
+      </c>
+      <c r="M75" s="2">
+        <v>9</v>
+      </c>
       <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
+      <c r="O75" s="2">
+        <v>4</v>
+      </c>
+      <c r="P75" s="2">
+        <v>2</v>
+      </c>
       <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
+      <c r="R75" s="2">
+        <v>7</v>
+      </c>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+    <row r="76" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5</v>
+      </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="2">
+        <v>2</v>
+      </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="I76" s="2">
+        <v>4</v>
+      </c>
       <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
+      <c r="K76" s="2">
+        <v>6</v>
+      </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
+      <c r="N76" s="2">
+        <v>1</v>
+      </c>
+      <c r="O76" s="2">
+        <v>7</v>
+      </c>
+      <c r="P76" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>8</v>
+      </c>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
     </row>
@@ -5505,6 +5875,342 @@
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
     </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Grad Clothing voting/ballots_table.xlsx
+++ b/Grad Clothing voting/ballots_table.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABEACE02ECD4E35F4CB25BDE589F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A0E4D1E1-9641-41A2-841F-DC359DE45589}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABEACE02ECD4E35F4CB25BDE589F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AE8B2230-B95F-4D92-A42E-1EC84F0C8A4F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -25,150 +33,6 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>wuli@utschools.ca</t>
-  </si>
-  <si>
-    <t>szyju@utschools.ca</t>
-  </si>
-  <si>
-    <t>zhawi@utschools.ca</t>
-  </si>
-  <si>
-    <t>level@utschools.ca</t>
-  </si>
-  <si>
-    <t>chuja@utschools.ca</t>
-  </si>
-  <si>
-    <t>liusu@utschools.ca</t>
-  </si>
-  <si>
-    <t>mara@utschools.ca</t>
-  </si>
-  <si>
-    <t>hasta@utschools.ca</t>
-  </si>
-  <si>
-    <t>huncl@utschools.ca</t>
-  </si>
-  <si>
-    <t>chomi@utschools.ca</t>
-  </si>
-  <si>
-    <t>shahe@utschools.ca</t>
-  </si>
-  <si>
-    <t>lausa@utschools.ca</t>
-  </si>
-  <si>
-    <t>ellgr@utschools.ca</t>
-  </si>
-  <si>
-    <t>leoso@utschools.ca</t>
-  </si>
-  <si>
-    <t>graan@utschools.ca</t>
-  </si>
-  <si>
-    <t>cheal@utschools.ca</t>
-  </si>
-  <si>
-    <t>liury@utschools.ca</t>
-  </si>
-  <si>
-    <t>camjo@utschools.ca</t>
-  </si>
-  <si>
-    <t>dcoce@utschools.ca</t>
-  </si>
-  <si>
-    <t>fogav@utschools.ca</t>
-  </si>
-  <si>
-    <t>manga@utschools.ca</t>
-  </si>
-  <si>
-    <t>uchkr@utschools.ca</t>
-  </si>
-  <si>
-    <t>baret@utschools.ca</t>
-  </si>
-  <si>
-    <t>shacl@utschools.ca</t>
-  </si>
-  <si>
-    <t>kanev@utschools.ca</t>
-  </si>
-  <si>
-    <t>mehvi@utschools.ca</t>
-  </si>
-  <si>
-    <t>tanmi@utschools.ca</t>
-  </si>
-  <si>
-    <t>aggar@utschools.ca</t>
-  </si>
-  <si>
-    <t>pitca@utschools.ca</t>
-  </si>
-  <si>
-    <t>tozar@utschools.ca</t>
-  </si>
-  <si>
-    <t>golel@utschools.ca</t>
-  </si>
-  <si>
-    <t>gryzo@utschools.ca</t>
-  </si>
-  <si>
-    <t>huaca@utschools.ca</t>
-  </si>
-  <si>
-    <t>lazzo@utschools.ca</t>
-  </si>
-  <si>
-    <t>leesoo@utschools.ca</t>
-  </si>
-  <si>
-    <t>chave@utschools.ca</t>
-  </si>
-  <si>
-    <t>panal@utschools.ca</t>
-  </si>
-  <si>
-    <t>morpa@utschools.ca</t>
-  </si>
-  <si>
-    <t>forsa@utschools.ca</t>
-  </si>
-  <si>
-    <t>whirh@utschools.ca</t>
-  </si>
-  <si>
-    <t>maist@utschools.ca</t>
-  </si>
-  <si>
-    <t>zhaal@utschools.ca</t>
-  </si>
-  <si>
-    <t>seeju@utschools.ca</t>
-  </si>
-  <si>
-    <t>lily@utschools.ca</t>
-  </si>
-  <si>
-    <t>grose@utschools.ca</t>
-  </si>
-  <si>
-    <t>crnse@utschools.ca</t>
-  </si>
-  <si>
-    <t>bhaae@utschools.ca</t>
-  </si>
-  <si>
-    <t>chijo@utschools.ca</t>
-  </si>
-  <si>
     <t>If we choose a hoodie, please rank the options for colour? [Black]</t>
   </si>
   <si>
@@ -223,85 +87,229 @@
     <t>If we choose a hoodie, please rank the options for colour? [White]</t>
   </si>
   <si>
-    <t>szazo@utschools.ca</t>
-  </si>
-  <si>
-    <t>beiga@utschools.ca</t>
-  </si>
-  <si>
-    <t>minda@utschools.ca</t>
-  </si>
-  <si>
-    <t>zhaer@utschools.ca</t>
-  </si>
-  <si>
-    <t>zhada@utschools.ca</t>
-  </si>
-  <si>
-    <t>lija@utschools.ca</t>
-  </si>
-  <si>
-    <t>yuhe@utschools.ca</t>
-  </si>
-  <si>
-    <t>parja@utschools.ca</t>
-  </si>
-  <si>
-    <t>lamli@utschools.ca</t>
-  </si>
-  <si>
-    <t>linra@utschools.ca</t>
-  </si>
-  <si>
-    <t>linje@utschools.ca</t>
-  </si>
-  <si>
-    <t>hanst@utschools.ca</t>
-  </si>
-  <si>
-    <t>thave@utschools.ca</t>
-  </si>
-  <si>
-    <t>onesh@utschools.ca</t>
-  </si>
-  <si>
-    <t>chakr@utschools.ca</t>
-  </si>
-  <si>
-    <t>zhora@utschools.ca</t>
-  </si>
-  <si>
-    <t>leejo@utschools.ca</t>
-  </si>
-  <si>
-    <t>tench@utschools.ca</t>
-  </si>
-  <si>
-    <t>leesun@utschools.ca</t>
-  </si>
-  <si>
-    <t>jinbe@utschools.ca</t>
-  </si>
-  <si>
-    <t>mohma@utschools.ca</t>
-  </si>
-  <si>
-    <t>liuann@utschools.ca</t>
-  </si>
-  <si>
-    <t>winar@utschools.ca</t>
-  </si>
-  <si>
-    <t>linda@utschools.ca</t>
-  </si>
-  <si>
-    <t>huaei@utschools.ca</t>
-  </si>
-  <si>
-    <t>pfesa@utschools.ca</t>
-  </si>
-  <si>
-    <t>wanma@utschools.ca</t>
+    <t>ANON2@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON3@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON4@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON5@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON6@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON7@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON8@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON9@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON10@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON11@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON12@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON13@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON14@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON15@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON16@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON17@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON18@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON19@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON20@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON21@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON22@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON23@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON24@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON25@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON26@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON27@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON28@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON29@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON30@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON31@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON32@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON33@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON34@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON35@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON36@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON37@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON38@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON39@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON40@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON41@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON42@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON43@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON44@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON45@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON46@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON47@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON48@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON49@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON50@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON51@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON52@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON53@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON54@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON55@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON56@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON57@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON58@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON59@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON60@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON61@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON62@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON63@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON64@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON65@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON66@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON67@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON68@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON69@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON70@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON71@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON72@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON73@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON74@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON75@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON76@utschools.ca</t>
   </si>
 </sst>
 </file>
@@ -633,74 +641,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
-      <selection activeCell="O80" sqref="O80"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="28.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
         <v>7</v>
@@ -757,9 +768,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
         <v>9</v>
@@ -816,9 +827,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2">
         <v>6</v>
@@ -875,9 +886,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -934,9 +945,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -993,9 +1004,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -1052,9 +1063,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2">
         <v>8</v>
@@ -1111,9 +1122,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -1170,9 +1181,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
@@ -1225,9 +1236,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
@@ -1282,9 +1293,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1339,9 +1350,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -1372,9 +1383,9 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1431,9 +1442,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2">
@@ -1486,9 +1497,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>7</v>
@@ -1545,9 +1556,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1604,9 +1615,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1663,9 +1674,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1690,9 +1701,9 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1719,9 +1730,9 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>8</v>
@@ -1760,9 +1771,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1805,9 +1816,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
@@ -1864,9 +1875,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1887,9 +1898,9 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2">
         <v>7</v>
@@ -1928,9 +1939,9 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
@@ -1985,9 +1996,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -2028,9 +2039,9 @@
       </c>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
@@ -2059,9 +2070,9 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -2116,9 +2127,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2141,9 +2152,9 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2">
         <v>15</v>
@@ -2194,9 +2205,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2227,9 +2238,9 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2">
         <v>9</v>
@@ -2286,9 +2297,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2">
         <v>9</v>
@@ -2327,9 +2338,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2">
         <v>3</v>
@@ -2362,9 +2373,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
         <v>15</v>
@@ -2403,9 +2414,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2426,9 +2437,9 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="2">
@@ -2459,9 +2470,9 @@
       </c>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -2518,9 +2529,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2">
         <v>11</v>
@@ -2577,9 +2588,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2">
         <v>9</v>
@@ -2636,9 +2647,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -2679,9 +2690,9 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -2716,9 +2727,9 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -2753,9 +2764,9 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -2786,9 +2797,9 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2">
         <v>3</v>
@@ -2845,9 +2856,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2">
         <v>7</v>
@@ -2904,9 +2915,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2929,9 +2940,9 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2">
         <v>8</v>
@@ -2988,7 +2999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -3011,7 +3022,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
@@ -3070,7 +3081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>69</v>
       </c>
@@ -3111,7 +3122,7 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>70</v>
       </c>
@@ -3152,7 +3163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
@@ -3195,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>72</v>
       </c>
@@ -3226,7 +3237,7 @@
       </c>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>73</v>
       </c>
@@ -3285,7 +3296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -3316,7 +3327,7 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -3371,7 +3382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>76</v>
       </c>
@@ -3412,7 +3423,7 @@
       </c>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>77</v>
       </c>
@@ -3453,7 +3464,7 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>78</v>
       </c>
@@ -3492,7 +3503,7 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -3533,7 +3544,7 @@
       </c>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>80</v>
       </c>
@@ -3590,7 +3601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>81</v>
       </c>
@@ -3617,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -3660,7 +3671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>83</v>
       </c>
@@ -3691,7 +3702,7 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>84</v>
       </c>
@@ -3726,7 +3737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>85</v>
       </c>
@@ -3785,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>86</v>
       </c>
@@ -3832,7 +3843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>87</v>
       </c>
@@ -3891,7 +3902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>88</v>
       </c>
@@ -3936,7 +3947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>89</v>
       </c>
@@ -3977,7 +3988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>90</v>
       </c>
@@ -4006,7 +4017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -4029,7 +4040,7 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>92</v>
       </c>
@@ -4070,7 +4081,7 @@
       </c>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
@@ -5875,8 +5886,7 @@
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A161" s="1"/>
+    <row r="161" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5896,8 +5906,7 @@
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A162" s="1"/>
+    <row r="162" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5917,8 +5926,7 @@
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A163" s="1"/>
+    <row r="163" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5938,8 +5946,7 @@
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A164" s="1"/>
+    <row r="164" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5959,8 +5966,7 @@
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A165" s="1"/>
+    <row r="165" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5980,8 +5986,7 @@
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A166" s="1"/>
+    <row r="166" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -6001,8 +6006,7 @@
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A167" s="1"/>
+    <row r="167" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -6022,8 +6026,7 @@
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A168" s="1"/>
+    <row r="168" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -6043,8 +6046,7 @@
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A169" s="1"/>
+    <row r="169" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -6064,8 +6066,7 @@
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A170" s="1"/>
+    <row r="170" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -6085,8 +6086,7 @@
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A171" s="1"/>
+    <row r="171" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -6106,8 +6106,7 @@
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A172" s="1"/>
+    <row r="172" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -6127,8 +6126,7 @@
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A173" s="1"/>
+    <row r="173" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -6148,8 +6146,7 @@
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A174" s="1"/>
+    <row r="174" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -6169,8 +6166,7 @@
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A175" s="1"/>
+    <row r="175" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -6190,8 +6186,7 @@
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A176" s="1"/>
+    <row r="176" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
